--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/15/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>5.151000000000003</v>
+        <v>5.112200000000002</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -533,7 +533,7 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>9.3217</v>
+        <v>9.374100000000002</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.315299999999996</v>
+        <v>6.249499999999997</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -703,7 +703,7 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>9.106600000000009</v>
+        <v>8.993500000000008</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.840599999999999</v>
+        <v>5.841399999999997</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
